--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3855253.979675326</v>
+        <v>3853001.899964118</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>79.91534106849782</v>
+        <v>143.0659977617357</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>23.54874949570569</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.472338733543</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846149</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>249.5456553076232</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>54.32369167158488</v>
+        <v>9.59580281112687</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>255.0100803403021</v>
+        <v>71.68269007697828</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991755</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>139.3687739767481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,13 +4352,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.252819444782</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686089</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064765</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986317</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.1078027362229</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1621.991591020618</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1621.991591020618</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1367.307102814731</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1077.88993277777</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>849.900381879753</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>629.1078027362229</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473105</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>378.5528805490663</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>371.6073797998628</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>360.5753336852634</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4598,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,49 +4647,49 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>825.3518203322459</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>825.3518203322459</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.3518203322459</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219476</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279064</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.904259672314</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>746.1160070740693</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>335.1301022844618</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>324.0980561698623</v>
+        <v>180.9157728462281</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259409</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283597</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738584</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459515</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336157</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512226</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533123</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040981</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,28 +5419,28 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,22 +5993,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6075,7 +6075,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,16 +6300,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>493.2161050975141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,13 +6777,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7078,19 +7078,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.288530476235451e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405077</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624252</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>635297.7181999518</v>
+        <v>635297.7181999517</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>635297.7181999518</v>
+        <v>635297.7181999517</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="G2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813259</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26442,16 +26442,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.0882867812</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10557.0882867812</v>
+      </c>
+      <c r="N4" t="n">
         <v>10557.08828678123</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10557.08828678123</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725907.0837294419</v>
+        <v>-725907.0837294424</v>
       </c>
       <c r="C6" t="n">
-        <v>602837.6619981499</v>
+        <v>602837.6619981505</v>
       </c>
       <c r="D6" t="n">
-        <v>602837.6619981502</v>
+        <v>602837.6619981503</v>
       </c>
       <c r="E6" t="n">
-        <v>349875.8547797129</v>
+        <v>349841.1168542762</v>
       </c>
       <c r="F6" t="n">
-        <v>675288.3165870673</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="G6" t="n">
-        <v>675288.3165870671</v>
+        <v>675253.578661632</v>
       </c>
       <c r="H6" t="n">
-        <v>675288.3165870674</v>
+        <v>675253.5786616318</v>
       </c>
       <c r="I6" t="n">
-        <v>675288.3165870672</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="J6" t="n">
-        <v>457757.1141897899</v>
+        <v>457722.3762643544</v>
       </c>
       <c r="K6" t="n">
-        <v>675288.3165870674</v>
+        <v>675253.5786616317</v>
       </c>
       <c r="L6" t="n">
-        <v>675288.3165870676</v>
+        <v>675253.5786616319</v>
       </c>
       <c r="M6" t="n">
-        <v>590233.2886515558</v>
+        <v>590198.5507261198</v>
       </c>
       <c r="N6" t="n">
-        <v>675288.3165870676</v>
+        <v>675253.5786616316</v>
       </c>
       <c r="O6" t="n">
-        <v>675288.3165870673</v>
+        <v>675253.5786616321</v>
       </c>
       <c r="P6" t="n">
-        <v>675288.3165870677</v>
+        <v>675253.5786616318</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>289.8157596099712</v>
+        <v>226.6651029167333</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>196.0001997804635</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549411</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.819342382546</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>45.06210907969725</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>232.1993066650061</v>
+        <v>276.9271955254641</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>39.59768404701833</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911067</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,19 +32312,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32476,10 +32476,10 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>752.2150000824579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,16 +33497,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,10 +36124,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>620.8732879991246</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>235.5010321525773</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,16 +37145,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
